--- a/菜品库导入模板.xlsx
+++ b/菜品库导入模板.xlsx
@@ -412,8 +412,8 @@
   </sheetPr>
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A55"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -454,7 +454,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n">
+      <c r="A5" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -513,12 +513,12 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
+      <c r="A7" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
+      <c r="A10" t="n">
         <v>4</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="n">
+      <c r="A13" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
+      <c r="A16" t="n">
         <v>6</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
+      <c r="A19" t="n">
         <v>7</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="n">
+      <c r="A22" t="n">
         <v>8</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
+      <c r="A25" t="n">
         <v>9</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="n">
+      <c r="A28" t="n">
         <v>10</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n">
+      <c r="A31" t="n">
         <v>11</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="n">
+      <c r="A34" t="n">
         <v>12</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
+      <c r="A37" t="n">
         <v>13</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>130</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="n">
+      <c r="A40" t="n">
         <v>14</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n">
+      <c r="A43" t="n">
         <v>15</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="n">
+      <c r="A46" t="n">
         <v>16</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="n">
+      <c r="A49" t="n">
         <v>17</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1174,12 +1174,12 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="n">
+      <c r="A52" t="n">
         <v>18</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1218,12 +1218,12 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="n">
+      <c r="A55" t="n">
         <v>19</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1262,12 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="n">
+      <c r="A58" t="n">
         <v>20</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>130</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="n">
+      <c r="A61" t="n">
         <v>21</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1350,12 +1350,12 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="n">
+      <c r="A64" t="n">
         <v>22</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="n">
+      <c r="A67" t="n">
         <v>23</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1438,27 +1438,27 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>24</v>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>紫薯花菜沙拉</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>紫薯</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
           <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>紫薯花菜沙拉</t>
-        </is>
-      </c>
-      <c r="C70" s="0" t="inlineStr">
-        <is>
-          <t>紫薯</t>
-        </is>
-      </c>
-      <c r="D70" s="0" t="inlineStr">
-        <is>
-          <t>70</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1482,12 +1482,12 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="n">
+      <c r="A73" t="n">
         <v>25</v>
       </c>
       <c r="B73" s="0" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="n">
+      <c r="A76" t="n">
         <v>26</v>
       </c>
       <c r="B76" s="0" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1570,12 +1570,12 @@
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="n">
+      <c r="A79" t="n">
         <v>27</v>
       </c>
       <c r="B79" s="0" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="n">
+      <c r="A82" t="n">
         <v>28</v>
       </c>
       <c r="B82" s="0" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>130</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="n">
+      <c r="A85" t="n">
         <v>29</v>
       </c>
       <c r="B85" s="0" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="n">
+      <c r="A88" t="n">
         <v>30</v>
       </c>
       <c r="B88" s="0" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="n">
+      <c r="A91" t="n">
         <v>31</v>
       </c>
       <c r="B91" s="0" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1790,12 +1790,12 @@
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="n">
+      <c r="A94" t="n">
         <v>32</v>
       </c>
       <c r="B94" s="0" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1834,12 +1834,12 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="n">
+      <c r="A97" t="n">
         <v>33</v>
       </c>
       <c r="B97" s="0" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1878,27 +1878,27 @@
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34</v>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>鸡蛋胡萝卜粥</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>鸡蛋</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
           <t>70</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B100" s="0" t="inlineStr">
-        <is>
-          <t>鸡蛋胡萝卜粥</t>
-        </is>
-      </c>
-      <c r="C100" s="0" t="inlineStr">
-        <is>
-          <t>鸡蛋</t>
-        </is>
-      </c>
-      <c r="D100" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1922,12 +1922,12 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="n">
+      <c r="A103" t="n">
         <v>35</v>
       </c>
       <c r="B103" s="0" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="n">
+      <c r="A106" t="n">
         <v>36</v>
       </c>
       <c r="B106" s="0" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D106" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -2010,12 +2010,12 @@
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0" t="n">
+      <c r="A109" t="n">
         <v>37</v>
       </c>
       <c r="B109" s="0" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -2054,12 +2054,12 @@
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="n">
+      <c r="A112" t="n">
         <v>38</v>
       </c>
       <c r="B112" s="0" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="n">
+      <c r="A115" t="n">
         <v>39</v>
       </c>
       <c r="B115" s="0" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D116" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="D117" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0" t="n">
+      <c r="A118" t="n">
         <v>40</v>
       </c>
       <c r="B118" s="0" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D119" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0" t="n">
+      <c r="A121" t="n">
         <v>41</v>
       </c>
       <c r="B121" s="0" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D121" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="n">
+      <c r="A124" t="n">
         <v>42</v>
       </c>
       <c r="B124" s="0" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="D124" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -2274,27 +2274,27 @@
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>43</v>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>豆腐胡萝卜汤</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>豆腐</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
           <t>100</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B127" s="0" t="inlineStr">
-        <is>
-          <t>豆腐胡萝卜汤</t>
-        </is>
-      </c>
-      <c r="C127" s="0" t="inlineStr">
-        <is>
-          <t>豆腐</t>
-        </is>
-      </c>
-      <c r="D127" s="0" t="inlineStr">
-        <is>
-          <t>90</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D128" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -2318,12 +2318,12 @@
       </c>
       <c r="D129" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0" t="n">
+      <c r="A130" t="n">
         <v>44</v>
       </c>
       <c r="B130" s="0" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D130" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D131" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="D132" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="0" t="n">
+      <c r="A133" t="n">
         <v>45</v>
       </c>
       <c r="B133" s="0" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="D133" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="D134" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0" t="n">
+      <c r="A136" t="n">
         <v>46</v>
       </c>
       <c r="B136" s="0" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D136" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D137" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2450,12 +2450,12 @@
       </c>
       <c r="D138" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="0" t="n">
+      <c r="A139" t="n">
         <v>47</v>
       </c>
       <c r="B139" s="0" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="D139" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -2494,12 +2494,12 @@
       </c>
       <c r="D141" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0" t="n">
+      <c r="A142" t="n">
         <v>48</v>
       </c>
       <c r="B142" s="0" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="D142" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="0" t="n">
+      <c r="A145" t="n">
         <v>49</v>
       </c>
       <c r="B145" s="0" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D145" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -2582,12 +2582,12 @@
       </c>
       <c r="D147" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0" t="n">
+      <c r="A148" t="n">
         <v>50</v>
       </c>
       <c r="B148" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D148" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D149" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D150" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
     </row>
